--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDBBE4F-0FAD-4069-B664-4C91C10AFAE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2100" windowHeight="1185" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -190,21 +196,50 @@
     <t>Buseness Analyst / Test Analyst</t>
   </si>
   <si>
-    <t>Design User Case  and Sequence Diagrams
+    <t>Uploaded Sequence Diagram to Git Hub</t>
+  </si>
+  <si>
+    <t>Rory - x19139306</t>
+  </si>
+  <si>
+    <t>Add Sequence Diagram to Final Proposal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Design User Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Sequence Diagrams - Done
 Start List of all frontend fields based on mockups
-List of possibles entintes based on mockups and requeirements lists
+List of possibles entinties based on mockups and requeirements lists
 Research on Color schemes
 Design logo and header
 Design footer
 List of information to appear on footer 
 Next meeting 25/10/2020</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +256,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -406,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -437,6 +480,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,8 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,6 +516,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -520,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,9 +600,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,6 +652,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -763,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -777,10 +858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
@@ -883,24 +964,24 @@
       <c r="K8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -935,20 +1016,20 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1023,7 +1104,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="7"/>
@@ -1033,7 +1114,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="10"/>
@@ -1072,7 +1153,7 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1"/>
@@ -1085,7 +1166,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="30"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -1103,11 +1184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,14 +1202,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -1185,16 +1266,24 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="32">
+        <v>44093</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -1345,11 +1434,12 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDBBE4F-0FAD-4069-B664-4C91C10AFAE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="-75" windowWidth="2100" windowHeight="1185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -196,50 +190,45 @@
     <t>Buseness Analyst / Test Analyst</t>
   </si>
   <si>
-    <t>Uploaded Sequence Diagram to Git Hub</t>
-  </si>
-  <si>
-    <t>Rory - x19139306</t>
-  </si>
-  <si>
-    <t>Add Sequence Diagram to Final Proposal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Design User Case </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Sequence Diagrams - Done
+    <t>Design User Case  and Sequence Diagrams
 Start List of all frontend fields based on mockups
-List of possibles entinties based on mockups and requeirements lists
+List of possibles entintes based on mockups and requeirements lists
 Research on Color schemes
 Design logo and header
 Design footer
 List of information to appear on footer 
 Next meeting 25/10/2020</t>
-    </r>
+  </si>
+  <si>
+    <t>Working on Logo proposal
+Working on Colour scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rory - x19139306
+Ronan - x19141815
+Kasia - x19176414
+Geneci - x19175108
+</t>
+  </si>
+  <si>
+    <t>Kasia and Rory to start working on HTML and CSS based on decision for Logo and Colour Scheme
+Geneci and Ronan to start working on Database relationship based on information from the Mockups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next meeting 01/11/2020. Time TBC
+Kasia and Rory to present progress on Frontend
+Geneci and Ronan to present progress on Backend
+</t>
+  </si>
+  <si>
+    <t>Decision on colour scheme and logo was made based on it is necessary to be there.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,14 +245,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -449,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -506,7 +487,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,9 +496,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -567,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,26 +577,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,23 +612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -844,11 +787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +949,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1038,10 +981,10 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
@@ -1055,13 +998,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
@@ -1078,7 +1021,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="1"/>
       <c r="L15" s="9"/>
       <c r="M15" s="1"/>
@@ -1184,11 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,23 +1209,27 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>44130</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="32">
-        <v>44093</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
+      <c r="F6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1434,12 +1381,11 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Project Management.xlsx
+++ b/Project Management.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genef\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB76BF-523F-4002-9B75-15D6EB5B6266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2100" windowHeight="1185" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Project Timeline</t>
   </si>
@@ -223,11 +229,32 @@
   <si>
     <t>Decision on colour scheme and logo was made based on it is necessary to be there.</t>
   </si>
+  <si>
+    <t>Analysis and discussion on class diagram
+Customer side relationship
+Product side relationship</t>
+  </si>
+  <si>
+    <t>Rory - x19139306
+Ronan - x19141815
+Kasia - x19176414
+Geneci - x19175108</t>
+  </si>
+  <si>
+    <t>Presentation on work done for the backend</t>
+  </si>
+  <si>
+    <t>Decision was made ot keep the database as simple as wecould to allow us to have a full working web application. Tables for database is based on excel file Customer_Tables and Products_Tables uploaded to Github today.</t>
+  </si>
+  <si>
+    <t>Ronan /Geneci to work in a full class diagram for the application
+Rory / Kasia to work on sample code for the frontend and logo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,6 +524,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -544,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,9 +607,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,6 +659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1127,11 +1191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,13 +1296,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    <row r="7" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>44136</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -1385,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
